--- a/output/utskrift_2020-06-14/B/Mellanklass ind skritt/11Keira Sönnert_B_klass16_Kür_Diesel_Su.xlsx
+++ b/output/utskrift_2020-06-14/B/Mellanklass ind skritt/11Keira Sönnert_B_klass16_Kür_Diesel_Su.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <x:si>
     <x:t>Information</x:t>
   </x:si>
@@ -699,6 +699,9 @@
   </x:si>
   <x:si>
     <x:t>Föreningen Uppsala Voltige</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blå 4</x:t>
   </x:si>
   <x:si>
     <x:t>SE</x:t>
@@ -3234,7 +3237,7 @@
     <x:row r="1" spans="1:12" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H2" s="21" t="s">
         <x:v>44</x:v>
@@ -3428,7 +3431,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -3533,7 +3536,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -3557,10 +3560,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -3638,7 +3641,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -3659,7 +3662,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -7902,7 +7905,9 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="J7" s="137" t="s"/>
-      <x:c r="K7" s="138" t="s"/>
+      <x:c r="K7" s="138" t="s">
+        <x:v>146</x:v>
+      </x:c>
       <x:c r="L7" s="135" t="s"/>
     </x:row>
     <x:row r="8" spans="1:12" customFormat="1" ht="17.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7911,7 +7916,7 @@
       </x:c>
       <x:c r="B8" s="2" t="s"/>
       <x:c r="C8" s="40" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s"/>
       <x:c r="E8" s="40" t="s"/>
@@ -7923,7 +7928,7 @@
       </x:c>
       <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="158" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D9" s="158" t="s"/>
       <x:c r="E9" s="158" t="s"/>
@@ -7935,7 +7940,7 @@
       </x:c>
       <x:c r="B10" s="6" t="s"/>
       <x:c r="C10" s="158" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D10" s="158" t="s"/>
       <x:c r="E10" s="158" t="s"/>
@@ -8023,7 +8028,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -8130,7 +8135,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -8154,10 +8159,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -8235,7 +8240,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -8256,7 +8261,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -8331,7 +8336,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B39" s="41" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C39" s="41" t="s"/>
       <x:c r="D39" s="41" t="s"/>
@@ -8437,7 +8442,7 @@
     <x:row r="1" spans="1:13" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:13" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s"/>
       <x:c r="I2" s="7" t="s">
@@ -8763,7 +8768,7 @@
     </x:row>
     <x:row r="27" spans="1:13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="178" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B27" s="203" t="s">
         <x:v>86</x:v>
